--- a/NRCS_Wetland_Tools_Pro/SUPPORT/Templates/NRCS_Address.xlsx
+++ b/NRCS_Wetland_Tools_Pro/SUPPORT/Templates/NRCS_Address.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIS_Tools\python_scripts\GitHub\Wetland_Tools_Pro\NRCS_Wetland_Tools_Pro\SUPPORT\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIS_Tools\NRCS_Wetland_Tools_Pro\SUPPORT\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B41D21-41A4-4047-8437-E7600FF0C28E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EB3896-5AA0-4A2B-919E-A6EDE93B8FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12900" yWindow="4440" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NRCS_Wetland_Tools_Pro/SUPPORT/Templates/NRCS_Address.xlsx
+++ b/NRCS_Wetland_Tools_Pro/SUPPORT/Templates/NRCS_Address.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIS_Tools\NRCS_Wetland_Tools_Pro\SUPPORT\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EB3896-5AA0-4A2B-919E-A6EDE93B8FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FF8830-D718-4FBA-BAD8-D81BC36C6121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="4440" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NRCS_Address" sheetId="1" r:id="rId1"/>
+    <sheet name="NRCS_Offices" sheetId="2" r:id="rId1"/>
+    <sheet name="FSA_Offices" sheetId="3" r:id="rId2"/>
+    <sheet name="NRCS_Address_Old" sheetId="1" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="NRCS_Address">NRCS_Address!$A$1:$R$2</definedName>
+    <definedName name="NRCS_Address">NRCS_Address_Old!$A$1:$R$2</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -104,14 +106,52 @@
   </si>
   <si>
     <t>(855) 373-6985</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>(260) 484-5848</t>
+  </si>
+  <si>
+    <t>(855) 373-6988</t>
+  </si>
+  <si>
+    <t>9602 Coldwater Road, Suite 104</t>
+  </si>
+  <si>
+    <t>Fort Wayne</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>FSAOffice</t>
+  </si>
+  <si>
+    <t>NRCSOffice</t>
+  </si>
+  <si>
+    <t>Decatur Service Center</t>
+  </si>
+  <si>
+    <t>Adams County FSA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -139,8 +179,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,8 +521,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADCAB1F-E5F1-4914-BC5C-A177647318B5}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -487,18 +530,173 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9266F03B-17DD-4E4F-9EE5-0F4A1A433B6F}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -514,7 +712,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -529,7 +727,7 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -538,7 +736,7 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -553,7 +751,7 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -567,7 +765,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
@@ -582,7 +780,7 @@
       <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K2" t="s">
@@ -591,7 +789,7 @@
       <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N2" t="s">
@@ -606,11 +804,65 @@
       <c r="Q2" t="s">
         <v>24</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
+        <v>46825</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1">
+        <v>46825</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>